--- a/3-野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
+++ b/3-野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="19800" windowHeight="2925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,19 +87,19 @@
     <t>PB10</t>
   </si>
   <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>UTXD</t>
+  </si>
+  <si>
+    <t>串行数据输出</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
     <t>PC6</t>
-  </si>
-  <si>
-    <t>UTXD</t>
-  </si>
-  <si>
-    <t>串行数据输出</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>PC7</t>
   </si>
   <si>
     <t>CH_PD</t>
@@ -159,11 +159,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,19 +204,96 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,120 +316,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,7 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,157 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,8 +649,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,22 +715,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,190 +743,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,13 +935,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1307,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L9"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1429,16 +1413,16 @@
       <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1470,16 +1454,16 @@
       <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1511,16 +1495,16 @@
       <c r="I6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1552,16 +1536,16 @@
       <c r="I7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1593,16 +1577,16 @@
       <c r="I8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1634,16 +1618,16 @@
       <c r="I9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="12" t="s">
         <v>44</v>
       </c>
     </row>

--- a/3-野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
+++ b/3-野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="2925"/>
+    <workbookView windowWidth="19560" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,19 +87,19 @@
     <t>PB10</t>
   </si>
   <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>UTXD</t>
+  </si>
+  <si>
+    <t>串行数据输出</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
     <t>PC7</t>
-  </si>
-  <si>
-    <t>UTXD</t>
-  </si>
-  <si>
-    <t>串行数据输出</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>PC6</t>
   </si>
   <si>
     <t>CH_PD</t>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -209,12 +209,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,56 +237,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,30 +293,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,19 +378,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,139 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,15 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,32 +657,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,151 +708,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/3-野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
+++ b/3-野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>ESP8266模块与各开发板引脚连接说明</t>
   </si>
@@ -126,6 +126,9 @@
     <t>PC4</t>
   </si>
   <si>
+    <t>PE4</t>
+  </si>
+  <si>
     <t>RST</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>PA12</t>
+  </si>
+  <si>
+    <t>PD6</t>
   </si>
 </sst>
 </file>
@@ -159,9 +165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -222,6 +228,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -237,26 +258,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,14 +291,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -292,6 +298,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -301,45 +323,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,21 +653,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -681,6 +672,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,17 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,16 +738,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +767,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1587,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1595,40 +1601,40 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
